--- a/results/mp/deberta/corona/confidence/84/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -97,16 +97,16 @@
     <t>support</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>join</t>
@@ -661,7 +661,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1179,25 +1179,25 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6982758620689655</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L17">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1205,25 +1205,25 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1231,25 +1231,25 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6842105263157895</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1257,25 +1257,25 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6808510638297872</v>
+        <v>0.6778242677824268</v>
       </c>
       <c r="L20">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="M20">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1361,25 +1361,25 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5853658536585366</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="L24">
         <v>192</v>
       </c>
       <c r="M24">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="10:17">
